--- a/update-input/ig/CodeSystem-CSMedicationTypes.xlsx
+++ b/update-input/ig/CodeSystem-CSMedicationTypes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
